--- a/rekentijdanalyse.xlsx
+++ b/rekentijdanalyse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Delphi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isomorphism\Documents\Repos\delphi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9009E65-95EB-4E99-BAE1-BD1530F599E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABF3873-08CB-4CEE-8A47-92050BDBD61D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{D5CF92F9-AA20-4E33-ADA2-A72C052D52D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D5CF92F9-AA20-4E33-ADA2-A72C052D52D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>N</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Het handelsreizigersprobleem is voor elke N, tien maal uitgevoerd om een steekproef te nemen.</t>
   </si>
   <si>
-    <t>De onderstaande waarnemingen zijn berekend met een Intel® Core™ i7-6700HQ CPU @ 2.60Ghz.</t>
-  </si>
-  <si>
     <t>Waarnemingen</t>
   </si>
   <si>
@@ -120,16 +117,80 @@
     <t>gemiddelde c</t>
   </si>
   <si>
-    <t>Intel® Core™ i7-6700HQ CPU (8.94e-7 * N!)</t>
-  </si>
-  <si>
     <t>Van deze tien waarnemingen is de gemiddelde rekentijd voor een aantal verschillende N bepaald.</t>
   </si>
   <si>
     <t xml:space="preserve">Hiermee is een formule opgesteld voor de theoretische rekentijd, wat T(N) = c * N! is. </t>
   </si>
   <si>
-    <t>Het model T(N) = 8.94616e-7*N! geeft een goed beeld van de rekentijd voor het handelsreizigersprobleem.</t>
+    <r>
+      <t>De onderstaande waarnemingen zijn berekend met een Intel® Core™ i7-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9700K </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU @ 3.60Ghz.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De onderstaande waarnemingen zijn berekend met een Intel® Core™ i7-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6700HQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CPU @ 2.60Ghz.</t>
+    </r>
+  </si>
+  <si>
+    <t>Intel® Core™ i7-9700K CPU @ 3.60Ghz.</t>
+  </si>
+  <si>
+    <t>Intel® Core™ i7-6700HQ Model (8.94e-7 * N!)</t>
+  </si>
+  <si>
+    <t>Het model T(N) = 8.94616e-7*N! geeft volgens mij goed beeld van de rekentijd voor het handelsreizigersprobleem.</t>
+  </si>
+  <si>
+    <t>Berekenen van c voor 6700HQ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wat wel opvalt is dat als N groter wordt dat de realiteit toch onder de theorie blijft liggen. Bij de 9700K is er te zien dat </t>
+  </si>
+  <si>
+    <t>als N groter wordt, deze op een rechte lijn ligt.</t>
   </si>
 </sst>
 </file>
@@ -204,28 +265,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -351,6 +393,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,7 +447,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -404,15 +483,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> van het h</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>andelsreizigersprobleem</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (Logaritmisch)</a:t>
+              <a:t> van het algoritme (Logaritmisch)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -458,7 +529,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$27</c:f>
+              <c:f>Blad1!$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -481,7 +552,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$C$26:$H$26</c:f>
+              <c:f>Blad1!$C$40:$H$40</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -507,7 +578,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$27:$H$27</c:f>
+              <c:f>Blad1!$C$41:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -544,11 +615,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$28</c:f>
+              <c:f>Blad1!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Intel® Core™ i7-6700HQ CPU (8.94e-7 * N!)</c:v>
+                  <c:v>Intel® Core™ i7-6700HQ Model (8.94e-7 * N!)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -556,7 +627,100 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$C$40:$H$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$42:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.4412373704304945E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5088661593013467E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6070929274410773E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32463836346969693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2463836346969694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.710219981666661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0DE0-40E1-82D8-A90AB1F0B758}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel® Core™ i7-9700K CPU @ 3.60Ghz.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -567,7 +731,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$C$26:$H$26</c:f>
+              <c:f>Blad1!$C$40:$H$40</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -593,27 +757,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$28:$H$28</c:f>
+              <c:f>Blad1!$C$43:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.4412373704304945E-4</c:v>
+                  <c:v>4.4810000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5088661593013467E-3</c:v>
+                  <c:v>8.3054999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6070929274410773E-2</c:v>
+                  <c:v>4.8641800000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32463836346969693</c:v>
+                  <c:v>4.4168429999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2463836346969694</c:v>
+                  <c:v>0.42414833000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.710219981666661</c:v>
+                  <c:v>4.7660494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +785,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0DE0-40E1-82D8-A90AB1F0B758}"/>
+              <c16:uniqueId val="{00000000-82FB-4CFE-BDCA-D619C8D97F23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1500,14 +1664,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>97632</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1536,7 +1700,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F31C80F8-6CAF-4CFF-A41A-0701E7B60439}" name="Tabel1" displayName="Tabel1" ref="B11:H21" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F31C80F8-6CAF-4CFF-A41A-0701E7B60439}" name="Tabel1" displayName="Tabel1" ref="B11:H21" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B11:H21" xr:uid="{2FA9F66D-F3DB-4E89-A07F-01F959181D76}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{ED4DA6D4-7DCC-4B3B-AD7E-3E74095AF1C4}" name="N"/>
@@ -1552,12 +1716,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{178AE7CB-878A-4511-853A-2D8B30BA0D4E}" name="Tabel2" displayName="Tabel2" ref="B26:H28" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="B26:H28" xr:uid="{F30BEF85-76AF-495C-928A-E088CE7C897A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{178AE7CB-878A-4511-853A-2D8B30BA0D4E}" name="Tabel2" displayName="Tabel2" ref="B40:H43" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="B40:H43" xr:uid="{F30BEF85-76AF-495C-928A-E088CE7C897A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7C21D190-76E7-4127-B4DF-08B3DAAAB9C0}" name="N"/>
-    <tableColumn id="2" xr3:uid="{25DBA5A5-03A9-4934-8D30-15027A1198B7}" name="6" dataDxfId="0">
-      <calculatedColumnFormula>$C$31*FACT(Tabel2[[#Headers],[6]])</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{25DBA5A5-03A9-4934-8D30-15027A1198B7}" name="6" dataDxfId="6">
+      <calculatedColumnFormula>$C$47*FACT(Tabel2[[#Headers],[6]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{B1C309BC-3064-4739-B053-D1BED3DCE280}" name="7" dataDxfId="5">
       <calculatedColumnFormula>AVERAGE(D12:D21)</calculatedColumnFormula>
@@ -1579,8 +1743,24 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{998B65FA-3848-40A6-958D-C8143F34E313}" name="Tabel16" displayName="Tabel16" ref="B25:H35" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B25:H35" xr:uid="{A242EADE-51FF-474A-941A-4324DD6BC14E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5D5347AD-A9DC-4BF9-893B-7B1E7F6E1FF3}" name="N"/>
+    <tableColumn id="2" xr3:uid="{9EBE9E6B-C864-4861-A8A8-484B13BEFF94}" name="6"/>
+    <tableColumn id="3" xr3:uid="{C7CA23F5-6B89-4C3B-86A2-AB4ADDA2C040}" name="7"/>
+    <tableColumn id="4" xr3:uid="{6C3FDDEF-EBD7-44EC-ABEA-6DEADD0295D9}" name="8"/>
+    <tableColumn id="5" xr3:uid="{5750C55E-8F6F-47ED-B75F-C54DDD3AB42F}" name="9"/>
+    <tableColumn id="6" xr3:uid="{80CC92E1-2539-4C4C-8298-B585C680EDBA}" name="10"/>
+    <tableColumn id="7" xr3:uid="{2AD57516-3C8A-469A-A7E6-71815A3A4157}" name="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1876,20 +2056,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19BDAC5-55CD-4411-9F6D-9987E1249333}">
-  <dimension ref="B2:H38"/>
+  <dimension ref="B2:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:8" ht="26" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1897,61 +2077,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:8" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>2.1543999999999999E-3</v>
@@ -1972,9 +2152,9 @@
         <v>6.7663663999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>2.1632000000000001E-3</v>
@@ -1995,9 +2175,9 @@
         <v>6.7399028999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>2.2133000000000001E-3</v>
@@ -2018,9 +2198,9 @@
         <v>6.7681404000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2.1521000000000001E-3</v>
@@ -2041,9 +2221,9 @@
         <v>6.8190726000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>2.1205E-3</v>
@@ -2064,9 +2244,9 @@
         <v>6.7984451000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>2.4212000000000001E-3</v>
@@ -2087,9 +2267,9 @@
         <v>6.7520337000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>2.2457000000000002E-3</v>
@@ -2110,9 +2290,9 @@
         <v>6.73576</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>2.1754999999999999E-3</v>
@@ -2133,9 +2313,9 @@
         <v>7.0015580000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>2.1503999999999998E-3</v>
@@ -2156,9 +2336,9 @@
         <v>6.9923545999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>2.2179000000000001E-3</v>
@@ -2179,149 +2359,451 @@
         <v>6.7512999000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B24" s="4" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
+      <c r="C26">
+        <v>1.2404E-3</v>
+      </c>
+      <c r="D26">
+        <v>8.4949999999999999E-4</v>
+      </c>
+      <c r="E26">
+        <v>4.9023000000000001E-3</v>
+      </c>
+      <c r="F26">
+        <v>4.5825900000000003E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.4279579</v>
+      </c>
+      <c r="H26">
+        <v>4.8592516999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>4.0180000000000001E-4</v>
+      </c>
+      <c r="D27">
+        <v>8.4150000000000002E-4</v>
+      </c>
+      <c r="E27">
+        <v>4.7955000000000003E-3</v>
+      </c>
+      <c r="F27">
+        <v>4.2736799999999998E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.4212322</v>
+      </c>
+      <c r="H27">
+        <v>4.7232228999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>3.4069999999999999E-4</v>
+      </c>
+      <c r="D28">
+        <v>7.9210000000000001E-4</v>
+      </c>
+      <c r="E28">
+        <v>4.9760999999999998E-3</v>
+      </c>
+      <c r="F28">
+        <v>4.25742E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.43096459999999998</v>
+      </c>
+      <c r="H28">
+        <v>4.7134263000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>4.2129999999999999E-4</v>
+      </c>
+      <c r="D29">
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="E29">
+        <v>4.9665999999999998E-3</v>
+      </c>
+      <c r="F29">
+        <v>4.2457000000000002E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.42232769999999997</v>
+      </c>
+      <c r="H29">
+        <v>4.8200089999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>3.1330000000000003E-4</v>
+      </c>
+      <c r="D30">
+        <v>8.4009999999999998E-4</v>
+      </c>
+      <c r="E30">
+        <v>4.8070999999999999E-3</v>
+      </c>
+      <c r="F30">
+        <v>4.9197900000000003E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.42220760000000002</v>
+      </c>
+      <c r="H30">
+        <v>4.7729433999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>3.391E-4</v>
+      </c>
+      <c r="D31">
+        <v>8.0389999999999997E-4</v>
+      </c>
+      <c r="E31">
+        <v>4.8639E-3</v>
+      </c>
+      <c r="F31">
+        <v>4.25315E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.42197119999999999</v>
+      </c>
+      <c r="H31">
+        <v>4.7246835000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>3.6469999999999997E-4</v>
+      </c>
+      <c r="D32">
+        <v>8.3679999999999996E-4</v>
+      </c>
+      <c r="E32">
+        <v>4.7921999999999999E-3</v>
+      </c>
+      <c r="F32">
+        <v>4.3139200000000003E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.42298249999999998</v>
+      </c>
+      <c r="H32">
+        <v>4.7115587999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>4.0420000000000001E-4</v>
+      </c>
+      <c r="D33">
+        <v>8.7279999999999996E-4</v>
+      </c>
+      <c r="E33">
+        <v>4.8713000000000003E-3</v>
+      </c>
+      <c r="F33">
+        <v>4.2952400000000002E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.42344280000000001</v>
+      </c>
+      <c r="H33">
+        <v>4.7495569</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>3.1920000000000001E-4</v>
+      </c>
+      <c r="D34">
+        <v>8.3259999999999996E-4</v>
+      </c>
+      <c r="E34">
+        <v>4.8056000000000001E-3</v>
+      </c>
+      <c r="F34">
+        <v>4.5080000000000002E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.42214380000000001</v>
+      </c>
+      <c r="H34">
+        <v>4.7798252999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>3.3629999999999999E-4</v>
+      </c>
+      <c r="D35">
+        <v>8.3120000000000004E-4</v>
+      </c>
+      <c r="E35">
+        <v>4.8612000000000004E-3</v>
+      </c>
+      <c r="F35">
+        <v>4.5189399999999998E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.42625299999999999</v>
+      </c>
+      <c r="H35">
+        <v>4.8060162000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
         <v>18</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F40" t="s">
         <v>20</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G40" t="s">
         <v>21</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H40" t="s">
         <v>22</v>
       </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:H41" si="0">AVERAGE(C12:C21)</f>
+        <v>2.2014199999999999E-3</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0174299999999998E-3</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6914420000000001E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10517625</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67721752999999996</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8124933600000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1">
+        <f>$C$52*FACT(Tabel2[[#Headers],[6]])</f>
+        <v>6.4412373704304945E-4</v>
+      </c>
+      <c r="D42" s="1">
+        <f>$C$52*FACT(Tabel2[[#Headers],[7]])</f>
+        <v>4.5088661593013467E-3</v>
+      </c>
+      <c r="E42" s="1">
+        <f>$C$52*FACT(Tabel2[[#Headers],[8]])</f>
+        <v>3.6070929274410773E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <f>$C$52*FACT(Tabel2[[#Headers],[9]])</f>
+        <v>0.32463836346969693</v>
+      </c>
+      <c r="G42" s="1">
+        <f>$C$52*FACT(Tabel2[[#Headers],[10]])</f>
+        <v>3.2463836346969694</v>
+      </c>
+      <c r="H42" s="1">
+        <f>$C$52*FACT(Tabel2[[#Headers],[11]])</f>
+        <v>35.710219981666661</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1">
+        <f>AVERAGE(Tabel16[6])</f>
+        <v>4.4810000000000005E-4</v>
+      </c>
+      <c r="D43" s="1">
+        <f>AVERAGE(Tabel16[7])</f>
+        <v>8.3054999999999999E-4</v>
+      </c>
+      <c r="E43" s="1">
+        <f>AVERAGE(Tabel16[8])</f>
+        <v>4.8641800000000009E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <f>AVERAGE(Tabel16[9])</f>
+        <v>4.4168429999999995E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <f>AVERAGE(Tabel16[10])</f>
+        <v>0.42414833000000007</v>
+      </c>
+      <c r="H43" s="1">
+        <f>AVERAGE(Tabel16[11])</f>
+        <v>4.7660494</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <f>AVERAGE(C12:C21)</f>
-        <v>2.2014199999999999E-3</v>
-      </c>
-      <c r="D27" s="1">
-        <f>AVERAGE(D12:D21)</f>
-        <v>5.0174299999999998E-3</v>
-      </c>
-      <c r="E27" s="1">
-        <f>AVERAGE(E12:E21)</f>
-        <v>2.6914420000000001E-2</v>
-      </c>
-      <c r="F27" s="1">
-        <f>AVERAGE(F12:F21)</f>
-        <v>0.10517625</v>
-      </c>
-      <c r="G27" s="1">
-        <f>AVERAGE(G12:G21)</f>
-        <v>0.67721752999999996</v>
-      </c>
-      <c r="H27" s="1">
-        <f>AVERAGE(H12:H21)</f>
-        <v>6.8124933600000004</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1">
-        <f>$C$36*FACT(Tabel2[[#Headers],[6]])</f>
-        <v>6.4412373704304945E-4</v>
-      </c>
-      <c r="D28" s="1">
-        <f>$C$36*FACT(Tabel2[[#Headers],[7]])</f>
-        <v>4.5088661593013467E-3</v>
-      </c>
-      <c r="E28" s="1">
-        <f>$C$36*FACT(Tabel2[[#Headers],[8]])</f>
-        <v>3.6070929274410773E-2</v>
-      </c>
-      <c r="F28" s="1">
-        <f>$C$36*FACT(Tabel2[[#Headers],[9]])</f>
-        <v>0.32463836346969693</v>
-      </c>
-      <c r="G28" s="1">
-        <f>$C$36*FACT(Tabel2[[#Headers],[10]])</f>
-        <v>3.2463836346969694</v>
-      </c>
-      <c r="H28" s="1">
-        <f>$C$36*FACT(Tabel2[[#Headers],[11]])</f>
-        <v>35.710219981666661</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
+      <c r="C51">
+        <f>C41/FACT(Tabel2[[#Headers],[6]])</f>
+        <v>3.0575277777777776E-6</v>
+      </c>
+      <c r="D51">
+        <f>D41/FACT(Tabel2[[#Headers],[7]])</f>
+        <v>9.9552182539682531E-7</v>
+      </c>
+      <c r="E51">
+        <f>E41/FACT(Tabel2[[#Headers],[8]])</f>
+        <v>6.6752033730158729E-7</v>
+      </c>
+      <c r="F51">
+        <f>F41/FACT(Tabel2[[#Headers],[9]])</f>
+        <v>2.8983754960317461E-7</v>
+      </c>
+      <c r="G51">
+        <f>G41/FACT(Tabel2[[#Headers],[10]])</f>
+        <v>1.8662299658289239E-7</v>
+      </c>
+      <c r="H51">
+        <f>H41/FACT(Tabel2[[#Headers],[11]])</f>
+        <v>1.7066732202982205E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>27</v>
       </c>
-      <c r="C35">
-        <f>C27/FACT(Tabel2[[#Headers],[6]])</f>
-        <v>3.0575277777777776E-6</v>
-      </c>
-      <c r="D35">
-        <f>D27/FACT(Tabel2[[#Headers],[7]])</f>
-        <v>9.9552182539682531E-7</v>
-      </c>
-      <c r="E35">
-        <f>E27/FACT(Tabel2[[#Headers],[8]])</f>
-        <v>6.6752033730158729E-7</v>
-      </c>
-      <c r="F35">
-        <f>F27/FACT(Tabel2[[#Headers],[9]])</f>
-        <v>2.8983754960317461E-7</v>
-      </c>
-      <c r="G35">
-        <f>G27/FACT(Tabel2[[#Headers],[10]])</f>
-        <v>1.8662299658289239E-7</v>
-      </c>
-      <c r="H35">
-        <f>H27/FACT(Tabel2[[#Headers],[11]])</f>
-        <v>1.7066732202982205E-7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36">
-        <f>AVERAGE(C35:H35)</f>
+      <c r="C52">
+        <f>AVERAGE(C51:H51)</f>
         <v>8.9461630144867984E-7</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>32</v>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2329,9 +2811,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>